--- a/Check.xlsx
+++ b/Check.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -34,12 +34,24 @@
     <t>Пройден</t>
   </si>
   <si>
-    <t>Авторизация в приложении (негативный сценарий)</t>
+    <t>Авторизация в приложении. Негативный сценарий, неверный логин.</t>
   </si>
   <si>
     <t>Не пройден</t>
   </si>
   <si>
+    <t>Авторизация в приложении. Негативный сценарий, неверный пароль.</t>
+  </si>
+  <si>
+    <t>Авторизация в приложении. Негативный сценарий, пустое значение в поле логин.</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Авторизация в приложении. Негативный сценарий, пустое значение в поле пароль.</t>
+  </si>
+  <si>
     <t>Переход между основными экранами</t>
   </si>
   <si>
@@ -73,24 +85,33 @@
     <t>Сортировка новостей</t>
   </si>
   <si>
-    <t>Medium</t>
-  </si>
-  <si>
     <t>Фильтрация новостей</t>
   </si>
   <si>
+    <t>Фильтрация новостей. Негативный сценарий, период фильтрации.</t>
+  </si>
+  <si>
     <t>Редактирование новостей</t>
   </si>
   <si>
     <t>Добавление новости</t>
   </si>
   <si>
-    <t>Проверка редактирования существующей новости</t>
+    <t>Редактирование существующей новости</t>
   </si>
   <si>
     <t>Удаление существующей новости</t>
   </si>
   <si>
+    <t>Добавление новости. Негативный сценарий, дата и время публикации.</t>
+  </si>
+  <si>
+    <t>Редактирование существующей новости. Негативный сценарий, дата и время публикации.</t>
+  </si>
+  <si>
+    <t>Фильтрация новостей. Негативный сценарий, активные и неактивеные новости.</t>
+  </si>
+  <si>
     <t>Экран About</t>
   </si>
   <si>
@@ -134,6 +155,18 @@
   </si>
   <si>
     <t>Ввод данных на кириллице в поле "Password"</t>
+  </si>
+  <si>
+    <t>Переход между экранами при потере интернет соединения.</t>
+  </si>
+  <si>
+    <t>Переход с экрана Main на экран News с помощью кнопки "All news"</t>
+  </si>
+  <si>
+    <t>Переход на экран "Control panel"</t>
+  </si>
+  <si>
+    <t>Редактирование новости</t>
   </si>
 </sst>
 </file>
@@ -252,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -277,8 +310,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -546,7 +582,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -557,59 +593,59 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>5</v>
@@ -619,9 +655,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
@@ -641,16 +675,14 @@
         <v>5</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
@@ -659,24 +691,26 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -687,72 +721,72 @@
         <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10"/>
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8"/>
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8"/>
-      <c r="B18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>6</v>
@@ -761,52 +795,46 @@
     <row r="20">
       <c r="A20" s="8"/>
       <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8"/>
+      <c r="B21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="C21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8"/>
+      <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="C22" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>8</v>
@@ -814,137 +842,326 @@
     </row>
     <row r="24">
       <c r="A24" s="8"/>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
+      <c r="B24" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>36</v>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
-        <v>37</v>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10"/>
+      <c r="B28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C30" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8"/>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="8"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
+      <c r="A35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8"/>
+      <c r="B39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8"/>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8"/>
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8"/>
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10"/>
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="8"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="8"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="8"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="10"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A46:A50"/>
+    <mergeCell ref="A37:A45"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A26"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C38">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C50">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D45">
       <formula1>"Пройден,Не пройден"</formula1>
     </dataValidation>
   </dataValidations>
